--- a/data/china_ie_partner/2019-05.xlsx
+++ b/data/china_ie_partner/2019-05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0417654F-EAF9-5242-9CAC-F57669734F8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE91187-132A-FD42-8C9E-99E092318FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,745 +36,989 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,10 +1081,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1210,7 +1455,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1226,24 +1471,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>33803</v>
+        <v>50349</v>
       </c>
       <c r="C2" s="3">
-        <v>33127</v>
-      </c>
-      <c r="D2" s="2">
-        <v>676</v>
+        <v>49342</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1007</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
@@ -1257,17 +1502,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>74324</v>
+        <v>110739</v>
       </c>
       <c r="C3" s="3">
-        <v>71778</v>
+        <v>106946</v>
       </c>
       <c r="D3" s="3">
-        <v>2546</v>
+        <v>3793</v>
       </c>
       <c r="E3" s="6">
         <v>2019</v>
@@ -1281,17 +1526,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>1185454</v>
+        <v>1766113</v>
       </c>
       <c r="C4" s="3">
-        <v>1130366</v>
+        <v>1684063</v>
       </c>
       <c r="D4" s="3">
-        <v>55088</v>
+        <v>82050</v>
       </c>
       <c r="E4" s="6">
         <v>2019</v>
@@ -1305,17 +1550,17 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>527</v>
+        <v>785</v>
       </c>
       <c r="C5" s="2">
-        <v>527</v>
+        <v>785</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
         <v>2019</v>
@@ -1329,17 +1574,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>58621</v>
+        <v>87298</v>
       </c>
       <c r="C6" s="3">
-        <v>34989</v>
+        <v>52084</v>
       </c>
       <c r="D6" s="3">
-        <v>23632</v>
+        <v>35214</v>
       </c>
       <c r="E6" s="6">
         <v>2019</v>
@@ -1353,17 +1598,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+      <c r="A7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>1146355</v>
+        <v>1706055</v>
       </c>
       <c r="C7" s="3">
-        <v>767222</v>
+        <v>1142014</v>
       </c>
       <c r="D7" s="3">
-        <v>379133</v>
+        <v>564041</v>
       </c>
       <c r="E7" s="6">
         <v>2019</v>
@@ -1377,17 +1622,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
+      <c r="A8" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>592890</v>
+        <v>883083</v>
       </c>
       <c r="C8" s="3">
-        <v>508272</v>
+        <v>757045</v>
       </c>
       <c r="D8" s="3">
-        <v>84618</v>
+        <v>126038</v>
       </c>
       <c r="E8" s="6">
         <v>2019</v>
@@ -1401,17 +1646,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>37462</v>
+        <v>55673</v>
       </c>
       <c r="C9" s="3">
-        <v>29607</v>
+        <v>44067</v>
       </c>
       <c r="D9" s="3">
-        <v>7855</v>
+        <v>11605</v>
       </c>
       <c r="E9" s="6">
         <v>2019</v>
@@ -1425,17 +1670,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>184913</v>
+        <v>275385</v>
       </c>
       <c r="C10" s="3">
-        <v>173427</v>
+        <v>258293</v>
       </c>
       <c r="D10" s="3">
-        <v>11486</v>
+        <v>17093</v>
       </c>
       <c r="E10" s="6">
         <v>2019</v>
@@ -1450,16 +1695,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="8" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>16402384</v>
+        <v>24433858</v>
       </c>
       <c r="C11" s="3">
-        <v>15925383</v>
+        <v>23723789</v>
       </c>
       <c r="D11" s="3">
-        <v>477001</v>
+        <v>710069</v>
       </c>
       <c r="E11" s="6">
         <v>2019</v>
@@ -1473,17 +1718,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>5490231</v>
+        <v>8177845</v>
       </c>
       <c r="C12" s="3">
-        <v>4468657</v>
+        <v>6656142</v>
       </c>
       <c r="D12" s="3">
-        <v>1021574</v>
+        <v>1521702</v>
       </c>
       <c r="E12" s="6">
         <v>2019</v>
@@ -1497,17 +1742,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>3987100</v>
+        <v>5938190</v>
       </c>
       <c r="C13" s="3">
-        <v>2085074</v>
+        <v>3105197</v>
       </c>
       <c r="D13" s="3">
-        <v>1902027</v>
+        <v>2832993</v>
       </c>
       <c r="E13" s="6">
         <v>2019</v>
@@ -1521,17 +1766,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>1373709</v>
+        <v>2043822</v>
       </c>
       <c r="C14" s="3">
-        <v>602960</v>
+        <v>896470</v>
       </c>
       <c r="D14" s="3">
-        <v>770750</v>
+        <v>1147353</v>
       </c>
       <c r="E14" s="6">
         <v>2019</v>
@@ -1545,17 +1790,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
+      <c r="A15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>2141582</v>
+        <v>3190907</v>
       </c>
       <c r="C15" s="3">
-        <v>604974</v>
+        <v>901411</v>
       </c>
       <c r="D15" s="3">
-        <v>1536608</v>
+        <v>2289496</v>
       </c>
       <c r="E15" s="6">
         <v>2019</v>
@@ -1569,17 +1814,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
+      <c r="A16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>837540</v>
+        <v>1247708</v>
       </c>
       <c r="C16" s="3">
-        <v>572377</v>
+        <v>852664</v>
       </c>
       <c r="D16" s="3">
-        <v>265163</v>
+        <v>395044</v>
       </c>
       <c r="E16" s="6">
         <v>2019</v>
@@ -1593,17 +1838,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
+      <c r="A17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>16842255</v>
+        <v>25106826</v>
       </c>
       <c r="C17" s="3">
-        <v>8005516</v>
+        <v>11930400</v>
       </c>
       <c r="D17" s="3">
-        <v>8836739</v>
+        <v>13176426</v>
       </c>
       <c r="E17" s="6">
         <v>2019</v>
@@ -1617,17 +1862,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
+      <c r="A18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>214727</v>
+        <v>319963</v>
       </c>
       <c r="C18" s="3">
-        <v>191709</v>
+        <v>285665</v>
       </c>
       <c r="D18" s="3">
-        <v>23018</v>
+        <v>34298</v>
       </c>
       <c r="E18" s="6">
         <v>2019</v>
@@ -1641,17 +1886,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
+      <c r="A19" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>1054427</v>
+        <v>1571138</v>
       </c>
       <c r="C19" s="3">
-        <v>219487</v>
+        <v>326994</v>
       </c>
       <c r="D19" s="3">
-        <v>834941</v>
+        <v>1244144</v>
       </c>
       <c r="E19" s="6">
         <v>2019</v>
@@ -1665,17 +1910,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
+      <c r="A20" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>259980</v>
+        <v>386468</v>
       </c>
       <c r="C20" s="3">
-        <v>108804</v>
+        <v>161945</v>
       </c>
       <c r="D20" s="3">
-        <v>151176</v>
+        <v>224523</v>
       </c>
       <c r="E20" s="6">
         <v>2019</v>
@@ -1689,17 +1934,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>116599</v>
+        <v>173740</v>
       </c>
       <c r="C21" s="3">
-        <v>114158</v>
+        <v>170103</v>
       </c>
       <c r="D21" s="3">
-        <v>2440</v>
+        <v>3636</v>
       </c>
       <c r="E21" s="6">
         <v>2019</v>
@@ -1713,17 +1958,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="5" t="s">
-        <v>225</v>
+      <c r="A22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>151407</v>
+        <v>225523</v>
       </c>
       <c r="C22" s="3">
-        <v>149120</v>
+        <v>222117</v>
       </c>
       <c r="D22" s="3">
-        <v>2287</v>
+        <v>3406</v>
       </c>
       <c r="E22" s="6">
         <v>2019</v>
@@ -1737,17 +1982,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
+      <c r="A23" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>7180140</v>
+        <v>10695260</v>
       </c>
       <c r="C23" s="3">
-        <v>2983315</v>
+        <v>4443365</v>
       </c>
       <c r="D23" s="3">
-        <v>4196825</v>
+        <v>6251895</v>
       </c>
       <c r="E23" s="6">
         <v>2019</v>
@@ -1761,17 +2006,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>17977</v>
+        <v>26760</v>
       </c>
       <c r="C24" s="3">
-        <v>17972</v>
+        <v>26754</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="6">
         <v>2019</v>
@@ -1785,17 +2030,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
+      <c r="A25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>530289</v>
+        <v>789535</v>
       </c>
       <c r="C25" s="3">
-        <v>105285</v>
+        <v>156680</v>
       </c>
       <c r="D25" s="3">
-        <v>425004</v>
+        <v>632855</v>
       </c>
       <c r="E25" s="6">
         <v>2019</v>
@@ -1809,17 +2054,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="5" t="s">
-        <v>226</v>
+      <c r="A26" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>79741</v>
+        <v>118716</v>
       </c>
       <c r="C26" s="3">
-        <v>78198</v>
+        <v>116428</v>
       </c>
       <c r="D26" s="3">
-        <v>1542</v>
+        <v>2287</v>
       </c>
       <c r="E26" s="6">
         <v>2019</v>
@@ -1833,17 +2078,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1548472</v>
+        <v>2307001</v>
       </c>
       <c r="C27" s="3">
-        <v>169174</v>
+        <v>252013</v>
       </c>
       <c r="D27" s="3">
-        <v>1379297</v>
+        <v>2054987</v>
       </c>
       <c r="E27" s="6">
         <v>2019</v>
@@ -1857,17 +2102,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>1143696</v>
+        <v>1703541</v>
       </c>
       <c r="C28" s="3">
-        <v>1038401</v>
+        <v>1546680</v>
       </c>
       <c r="D28" s="3">
-        <v>105294</v>
+        <v>156861</v>
       </c>
       <c r="E28" s="6">
         <v>2019</v>
@@ -1881,17 +2126,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
+      <c r="A29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>4676</v>
+        <v>6967</v>
       </c>
       <c r="C29" s="3">
-        <v>4673</v>
+        <v>6962</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="6">
         <v>2019</v>
@@ -1905,17 +2150,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>3425100</v>
+        <v>5102124</v>
       </c>
       <c r="C30" s="3">
-        <v>2288457</v>
+        <v>3408654</v>
       </c>
       <c r="D30" s="3">
-        <v>1136643</v>
+        <v>1693469</v>
       </c>
       <c r="E30" s="6">
         <v>2019</v>
@@ -1929,17 +2174,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
+      <c r="A31" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>588021</v>
+        <v>876076</v>
       </c>
       <c r="C31" s="3">
-        <v>129835</v>
+        <v>193448</v>
       </c>
       <c r="D31" s="3">
-        <v>458186</v>
+        <v>682628</v>
       </c>
       <c r="E31" s="6">
         <v>2019</v>
@@ -1953,17 +2198,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
+      <c r="A32" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>3885322</v>
+        <v>5789365</v>
       </c>
       <c r="C32" s="3">
-        <v>1428435</v>
+        <v>2128332</v>
       </c>
       <c r="D32" s="3">
-        <v>2456887</v>
+        <v>3661033</v>
       </c>
       <c r="E32" s="6">
         <v>2019</v>
@@ -1977,17 +2222,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>4334894</v>
+        <v>6457127</v>
       </c>
       <c r="C33" s="3">
-        <v>2573566</v>
+        <v>3833208</v>
       </c>
       <c r="D33" s="3">
-        <v>1761328</v>
+        <v>2623919</v>
       </c>
       <c r="E33" s="6">
         <v>2019</v>
@@ -2001,17 +2246,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>16646189</v>
+        <v>24794290</v>
       </c>
       <c r="C34" s="3">
-        <v>6734329</v>
+        <v>10031248</v>
       </c>
       <c r="D34" s="3">
-        <v>9911860</v>
+        <v>14763042</v>
       </c>
       <c r="E34" s="6">
         <v>2019</v>
@@ -2025,17 +2270,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
+      <c r="A35" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>207815</v>
+        <v>309601</v>
       </c>
       <c r="C35" s="3">
-        <v>192089</v>
+        <v>286199</v>
       </c>
       <c r="D35" s="3">
-        <v>15726</v>
+        <v>23402</v>
       </c>
       <c r="E35" s="6">
         <v>2019</v>
@@ -2049,17 +2294,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>88690</v>
+        <v>132051</v>
       </c>
       <c r="C36" s="3">
-        <v>88662</v>
+        <v>132009</v>
       </c>
       <c r="D36" s="2">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E36" s="6">
         <v>2019</v>
@@ -2073,17 +2318,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
+      <c r="A37" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>5269089</v>
+        <v>7847962</v>
       </c>
       <c r="C37" s="3">
-        <v>2703631</v>
+        <v>4026904</v>
       </c>
       <c r="D37" s="3">
-        <v>2565458</v>
+        <v>3821058</v>
       </c>
       <c r="E37" s="6">
         <v>2019</v>
@@ -2097,17 +2342,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
+      <c r="A38" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1253982</v>
+        <v>1867077</v>
       </c>
       <c r="C38" s="3">
-        <v>1075162</v>
+        <v>1601056</v>
       </c>
       <c r="D38" s="3">
-        <v>178820</v>
+        <v>266021</v>
       </c>
       <c r="E38" s="6">
         <v>2019</v>
@@ -2121,17 +2366,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
+      <c r="A39" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>2642252</v>
+        <v>3936031</v>
       </c>
       <c r="C39" s="3">
-        <v>1944668</v>
+        <v>2897099</v>
       </c>
       <c r="D39" s="3">
-        <v>697583</v>
+        <v>1038932</v>
       </c>
       <c r="E39" s="6">
         <v>2019</v>
@@ -2145,17 +2390,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
+      <c r="A40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>169059</v>
+        <v>251915</v>
       </c>
       <c r="C40" s="3">
-        <v>168759</v>
+        <v>251467</v>
       </c>
       <c r="D40" s="2">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="E40" s="6">
         <v>2019</v>
@@ -2169,17 +2414,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
+      <c r="A41" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>8937263</v>
+        <v>13295333</v>
       </c>
       <c r="C41" s="3">
-        <v>5798876</v>
+        <v>8635018</v>
       </c>
       <c r="D41" s="3">
-        <v>3138388</v>
+        <v>4660315</v>
       </c>
       <c r="E41" s="6">
         <v>2019</v>
@@ -2193,17 +2438,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
+      <c r="A42" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>6955849</v>
+        <v>10361958</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>6955849</v>
+        <v>10361958</v>
       </c>
       <c r="E42" s="6">
         <v>2019</v>
@@ -2218,16 +2463,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="8" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>12563932</v>
+        <v>18716788</v>
       </c>
       <c r="C43" s="3">
-        <v>3107144</v>
+        <v>4628161</v>
       </c>
       <c r="D43" s="3">
-        <v>9456788</v>
+        <v>14088627</v>
       </c>
       <c r="E43" s="6">
         <v>2019</v>
@@ -2241,17 +2486,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
+      <c r="A44" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>6722</v>
+        <v>10011</v>
       </c>
       <c r="C44" s="3">
-        <v>6684</v>
+        <v>9955</v>
       </c>
       <c r="D44" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E44" s="6">
         <v>2019</v>
@@ -2265,17 +2510,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
+      <c r="A45" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1321073</v>
+        <v>1967272</v>
       </c>
       <c r="C45" s="3">
-        <v>681625</v>
+        <v>1015379</v>
       </c>
       <c r="D45" s="3">
-        <v>639448</v>
+        <v>951893</v>
       </c>
       <c r="E45" s="6">
         <v>2019</v>
@@ -2289,17 +2534,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
+      <c r="A46" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>232363</v>
+        <v>346230</v>
       </c>
       <c r="C46" s="3">
-        <v>230425</v>
+        <v>343343</v>
       </c>
       <c r="D46" s="3">
-        <v>1938</v>
+        <v>2888</v>
       </c>
       <c r="E46" s="6">
         <v>2019</v>
@@ -2313,17 +2558,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
+      <c r="A47" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>72238</v>
+        <v>107633</v>
       </c>
       <c r="C47" s="3">
-        <v>67115</v>
+        <v>100005</v>
       </c>
       <c r="D47" s="3">
-        <v>5123</v>
+        <v>7628</v>
       </c>
       <c r="E47" s="6">
         <v>2019</v>
@@ -2337,17 +2582,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
+      <c r="A48" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>510074</v>
+        <v>760028</v>
       </c>
       <c r="C48" s="3">
-        <v>13107</v>
+        <v>19502</v>
       </c>
       <c r="D48" s="3">
-        <v>496967</v>
+        <v>740526</v>
       </c>
       <c r="E48" s="6">
         <v>2019</v>
@@ -2361,17 +2606,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="5" t="s">
-        <v>227</v>
+      <c r="A49" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>414949</v>
+        <v>618156</v>
       </c>
       <c r="C49" s="3">
-        <v>239491</v>
+        <v>356699</v>
       </c>
       <c r="D49" s="3">
-        <v>175458</v>
+        <v>261457</v>
       </c>
       <c r="E49" s="6">
         <v>2019</v>
@@ -2385,17 +2630,17 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
+      <c r="A50" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
       </c>
       <c r="E50" s="6">
         <v>2019</v>
@@ -2409,17 +2654,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
+      <c r="A51" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>12532265</v>
+        <v>18669512</v>
       </c>
       <c r="C51" s="3">
-        <v>6902334</v>
+        <v>10282047</v>
       </c>
       <c r="D51" s="3">
-        <v>5629932</v>
+        <v>8387466</v>
       </c>
       <c r="E51" s="6">
         <v>2019</v>
@@ -2433,17 +2678,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
+      <c r="A52" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>631725</v>
+        <v>941106</v>
       </c>
       <c r="C52" s="3">
-        <v>441845</v>
+        <v>658172</v>
       </c>
       <c r="D52" s="3">
-        <v>189880</v>
+        <v>282935</v>
       </c>
       <c r="E52" s="6">
         <v>2019</v>
@@ -2457,17 +2702,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="5" t="s">
-        <v>49</v>
+      <c r="A53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1477093</v>
+        <v>2200900</v>
       </c>
       <c r="C53" s="3">
-        <v>114361</v>
+        <v>170339</v>
       </c>
       <c r="D53" s="3">
-        <v>1362732</v>
+        <v>2030561</v>
       </c>
       <c r="E53" s="6">
         <v>2019</v>
@@ -2481,17 +2726,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="5" t="s">
-        <v>50</v>
+      <c r="A54" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>176245</v>
+        <v>262603</v>
       </c>
       <c r="C54" s="3">
-        <v>161516</v>
+        <v>240655</v>
       </c>
       <c r="D54" s="3">
-        <v>14729</v>
+        <v>21948</v>
       </c>
       <c r="E54" s="6">
         <v>2019</v>
@@ -2505,17 +2750,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
+      <c r="A55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>17838</v>
+        <v>26580</v>
       </c>
       <c r="C55" s="3">
-        <v>17078</v>
-      </c>
-      <c r="D55" s="2">
-        <v>760</v>
+        <v>25447</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1132</v>
       </c>
       <c r="E55" s="6">
         <v>2019</v>
@@ -2529,17 +2774,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
+      <c r="A56" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>4073</v>
+        <v>6068</v>
       </c>
       <c r="C56" s="3">
-        <v>3267</v>
-      </c>
-      <c r="D56" s="2">
-        <v>806</v>
+        <v>4867</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1201</v>
       </c>
       <c r="E56" s="6">
         <v>2019</v>
@@ -2553,17 +2798,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>228</v>
+      <c r="A57" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>106656</v>
+        <v>158837</v>
       </c>
       <c r="C57" s="3">
-        <v>91407</v>
+        <v>136167</v>
       </c>
       <c r="D57" s="3">
-        <v>15249</v>
+        <v>22670</v>
       </c>
       <c r="E57" s="6">
         <v>2019</v>
@@ -2577,14 +2822,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
+      <c r="A58" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C58" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -2601,17 +2846,17 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
+      <c r="A59" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>3833</v>
+        <v>5698</v>
       </c>
       <c r="C59" s="3">
-        <v>3831</v>
+        <v>5695</v>
       </c>
       <c r="D59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="6">
         <v>2019</v>
@@ -2625,17 +2870,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
+      <c r="A60" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>5366</v>
+        <v>7965</v>
       </c>
       <c r="C60" s="3">
-        <v>2831</v>
+        <v>4219</v>
       </c>
       <c r="D60" s="3">
-        <v>2535</v>
+        <v>3746</v>
       </c>
       <c r="E60" s="6">
         <v>2019</v>
@@ -2649,17 +2894,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
+      <c r="A61" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61" s="6">
         <v>2019</v>
@@ -2673,14 +2918,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
+      <c r="A62" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>14041</v>
+        <v>20908</v>
       </c>
       <c r="C62" s="3">
-        <v>14040</v>
+        <v>20907</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -2697,14 +2942,14 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
+      <c r="A63" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>5912</v>
+        <v>8807</v>
       </c>
       <c r="C63" s="3">
-        <v>5912</v>
+        <v>8807</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -2721,17 +2966,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
+      <c r="A64" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>342090</v>
+        <v>509744</v>
       </c>
       <c r="C64" s="3">
-        <v>22683</v>
+        <v>33799</v>
       </c>
       <c r="D64" s="3">
-        <v>319407</v>
+        <v>475945</v>
       </c>
       <c r="E64" s="6">
         <v>2019</v>
@@ -2745,14 +2990,14 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>60</v>
+      <c r="A65" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>138298</v>
+        <v>206081</v>
       </c>
       <c r="C65" s="3">
-        <v>138298</v>
+        <v>206080</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -2769,17 +3014,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="5" t="s">
-        <v>61</v>
+      <c r="A66" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>833320</v>
+        <v>1241551</v>
       </c>
       <c r="C66" s="3">
-        <v>764146</v>
+        <v>1138512</v>
       </c>
       <c r="D66" s="3">
-        <v>69174</v>
+        <v>103039</v>
       </c>
       <c r="E66" s="6">
         <v>2019</v>
@@ -2793,17 +3038,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="5" t="s">
-        <v>62</v>
+      <c r="A67" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>86468</v>
+        <v>128640</v>
       </c>
       <c r="C67" s="3">
-        <v>6936</v>
+        <v>10327</v>
       </c>
       <c r="D67" s="3">
-        <v>79533</v>
+        <v>118313</v>
       </c>
       <c r="E67" s="6">
         <v>2019</v>
@@ -2817,17 +3062,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="5" t="s">
-        <v>63</v>
+      <c r="A68" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>125456</v>
+        <v>186905</v>
       </c>
       <c r="C68" s="3">
-        <v>102078</v>
+        <v>152073</v>
       </c>
       <c r="D68" s="3">
-        <v>23378</v>
+        <v>34831</v>
       </c>
       <c r="E68" s="6">
         <v>2019</v>
@@ -2841,17 +3086,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
+      <c r="A69" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>327308</v>
+        <v>487512</v>
       </c>
       <c r="C69" s="3">
-        <v>26292</v>
+        <v>39063</v>
       </c>
       <c r="D69" s="3">
-        <v>301016</v>
+        <v>448449</v>
       </c>
       <c r="E69" s="6">
         <v>2019</v>
@@ -2865,17 +3110,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="5" t="s">
-        <v>65</v>
+      <c r="A70" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>41042</v>
+        <v>61147</v>
       </c>
       <c r="C70" s="3">
-        <v>34207</v>
+        <v>50963</v>
       </c>
       <c r="D70" s="3">
-        <v>6836</v>
+        <v>10184</v>
       </c>
       <c r="E70" s="6">
         <v>2019</v>
@@ -2889,17 +3134,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
+      <c r="A71" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>464692</v>
+        <v>692315</v>
       </c>
       <c r="C71" s="3">
-        <v>292657</v>
+        <v>435967</v>
       </c>
       <c r="D71" s="3">
-        <v>172035</v>
+        <v>256348</v>
       </c>
       <c r="E71" s="6">
         <v>2019</v>
@@ -2913,17 +3158,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="5" t="s">
-        <v>67</v>
+      <c r="A72" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>315047</v>
+        <v>469317</v>
       </c>
       <c r="C72" s="3">
-        <v>125211</v>
+        <v>186443</v>
       </c>
       <c r="D72" s="3">
-        <v>189836</v>
+        <v>282874</v>
       </c>
       <c r="E72" s="6">
         <v>2019</v>
@@ -2937,17 +3182,17 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="5" t="s">
-        <v>68</v>
+      <c r="A73" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>1015</v>
-      </c>
-      <c r="C73" s="2">
-        <v>681</v>
+        <v>1512</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1013</v>
       </c>
       <c r="D73" s="2">
-        <v>335</v>
+        <v>499</v>
       </c>
       <c r="E73" s="6">
         <v>2019</v>
@@ -2961,17 +3206,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="5" t="s">
-        <v>69</v>
+      <c r="A74" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>157922</v>
+        <v>235208</v>
       </c>
       <c r="C74" s="3">
-        <v>129814</v>
+        <v>193341</v>
       </c>
       <c r="D74" s="3">
-        <v>28108</v>
+        <v>41867</v>
       </c>
       <c r="E74" s="6">
         <v>2019</v>
@@ -2985,17 +3230,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="5" t="s">
-        <v>70</v>
+      <c r="A75" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>304342</v>
+        <v>453446</v>
       </c>
       <c r="C75" s="3">
-        <v>292267</v>
+        <v>435460</v>
       </c>
       <c r="D75" s="3">
-        <v>12076</v>
+        <v>17987</v>
       </c>
       <c r="E75" s="6">
         <v>2019</v>
@@ -3009,17 +3254,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="5" t="s">
-        <v>71</v>
+      <c r="A76" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>254138</v>
+        <v>378556</v>
       </c>
       <c r="C76" s="3">
-        <v>236970</v>
+        <v>352971</v>
       </c>
       <c r="D76" s="3">
-        <v>17167</v>
+        <v>25584</v>
       </c>
       <c r="E76" s="6">
         <v>2019</v>
@@ -3033,17 +3278,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="5" t="s">
-        <v>72</v>
+      <c r="A77" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>434351</v>
+        <v>647143</v>
       </c>
       <c r="C77" s="3">
-        <v>143575</v>
+        <v>213861</v>
       </c>
       <c r="D77" s="3">
-        <v>290775</v>
+        <v>433282</v>
       </c>
       <c r="E77" s="6">
         <v>2019</v>
@@ -3057,17 +3302,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="5" t="s">
-        <v>73</v>
+      <c r="A78" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>76124</v>
+        <v>113408</v>
       </c>
       <c r="C78" s="3">
-        <v>63966</v>
+        <v>95302</v>
       </c>
       <c r="D78" s="3">
-        <v>12159</v>
+        <v>18106</v>
       </c>
       <c r="E78" s="6">
         <v>2019</v>
@@ -3081,17 +3326,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="5" t="s">
-        <v>74</v>
+      <c r="A79" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>12628</v>
+        <v>18814</v>
       </c>
       <c r="C79" s="3">
-        <v>12569</v>
+        <v>18727</v>
       </c>
       <c r="D79" s="2">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E79" s="6">
         <v>2019</v>
@@ -3105,17 +3350,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="5" t="s">
-        <v>229</v>
+      <c r="A80" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>38949</v>
+        <v>58012</v>
       </c>
       <c r="C80" s="3">
-        <v>20355</v>
+        <v>30307</v>
       </c>
       <c r="D80" s="3">
-        <v>18594</v>
+        <v>27705</v>
       </c>
       <c r="E80" s="6">
         <v>2019</v>
@@ -3129,17 +3374,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
+      <c r="A81" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>121012</v>
+        <v>180300</v>
       </c>
       <c r="C81" s="3">
-        <v>58761</v>
+        <v>87540</v>
       </c>
       <c r="D81" s="3">
-        <v>62250</v>
+        <v>92760</v>
       </c>
       <c r="E81" s="6">
         <v>2019</v>
@@ -3153,17 +3398,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
+      <c r="A82" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>48717</v>
+        <v>72571</v>
       </c>
       <c r="C82" s="3">
-        <v>47237</v>
+        <v>70370</v>
       </c>
       <c r="D82" s="3">
-        <v>1481</v>
+        <v>2201</v>
       </c>
       <c r="E82" s="6">
         <v>2019</v>
@@ -3177,17 +3422,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="5" t="s">
-        <v>77</v>
+      <c r="A83" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>319516</v>
+        <v>475866</v>
       </c>
       <c r="C83" s="3">
-        <v>281258</v>
+        <v>418921</v>
       </c>
       <c r="D83" s="3">
-        <v>38258</v>
+        <v>56945</v>
       </c>
       <c r="E83" s="6">
         <v>2019</v>
@@ -3201,17 +3446,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="5" t="s">
-        <v>78</v>
+      <c r="A84" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>121120</v>
+        <v>180418</v>
       </c>
       <c r="C84" s="3">
-        <v>104254</v>
+        <v>155288</v>
       </c>
       <c r="D84" s="3">
-        <v>16865</v>
+        <v>25130</v>
       </c>
       <c r="E84" s="6">
         <v>2019</v>
@@ -3225,17 +3470,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="5" t="s">
-        <v>79</v>
+      <c r="A85" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>17026</v>
+        <v>25368</v>
       </c>
       <c r="C85" s="3">
-        <v>14402</v>
+        <v>21459</v>
       </c>
       <c r="D85" s="3">
-        <v>2623</v>
+        <v>3909</v>
       </c>
       <c r="E85" s="6">
         <v>2019</v>
@@ -3249,17 +3494,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
+      <c r="A86" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>28809</v>
+        <v>42910</v>
       </c>
       <c r="C86" s="3">
-        <v>17642</v>
+        <v>26276</v>
       </c>
       <c r="D86" s="3">
-        <v>11167</v>
+        <v>16634</v>
       </c>
       <c r="E86" s="6">
         <v>2019</v>
@@ -3273,17 +3518,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
+      <c r="A87" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>1089020</v>
+        <v>1622502</v>
       </c>
       <c r="C87" s="3">
-        <v>1053306</v>
+        <v>1569291</v>
       </c>
       <c r="D87" s="3">
-        <v>35714</v>
+        <v>53211</v>
       </c>
       <c r="E87" s="6">
         <v>2019</v>
@@ -3297,14 +3542,14 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
+      <c r="A88" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>10008</v>
+        <v>14908</v>
       </c>
       <c r="C88" s="3">
-        <v>10007</v>
+        <v>14908</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -3321,17 +3566,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
+      <c r="A89" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>20219</v>
+        <v>30125</v>
       </c>
       <c r="C89" s="3">
-        <v>17268</v>
+        <v>25728</v>
       </c>
       <c r="D89" s="3">
-        <v>2951</v>
+        <v>4397</v>
       </c>
       <c r="E89" s="6">
         <v>2019</v>
@@ -3345,17 +3590,17 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="5" t="s">
-        <v>84</v>
+      <c r="A90" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="C90" s="2">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="6">
         <v>2019</v>
@@ -3369,17 +3614,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="5" t="s">
-        <v>85</v>
+      <c r="A91" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>185758</v>
+        <v>276638</v>
       </c>
       <c r="C91" s="3">
-        <v>159424</v>
+        <v>237427</v>
       </c>
       <c r="D91" s="3">
-        <v>26334</v>
+        <v>39211</v>
       </c>
       <c r="E91" s="6">
         <v>2019</v>
@@ -3393,17 +3638,17 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="5" t="s">
-        <v>86</v>
+      <c r="A92" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>4527</v>
+        <v>6739</v>
       </c>
       <c r="C92" s="3">
-        <v>4526</v>
+        <v>6738</v>
       </c>
       <c r="D92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="6">
         <v>2019</v>
@@ -3417,17 +3662,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="5" t="s">
-        <v>87</v>
+      <c r="A93" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>34242</v>
+        <v>51016</v>
       </c>
       <c r="C93" s="3">
-        <v>24780</v>
+        <v>36922</v>
       </c>
       <c r="D93" s="3">
-        <v>9461</v>
+        <v>14095</v>
       </c>
       <c r="E93" s="6">
         <v>2019</v>
@@ -3441,17 +3686,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="5" t="s">
-        <v>88</v>
+      <c r="A94" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>49810</v>
+        <v>74217</v>
       </c>
       <c r="C94" s="3">
-        <v>49086</v>
-      </c>
-      <c r="D94" s="2">
-        <v>723</v>
+        <v>73141</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1077</v>
       </c>
       <c r="E94" s="6">
         <v>2019</v>
@@ -3465,17 +3710,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="5" t="s">
-        <v>230</v>
+      <c r="A95" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2414702</v>
+        <v>3596770</v>
       </c>
       <c r="C95" s="3">
-        <v>958027</v>
+        <v>1426931</v>
       </c>
       <c r="D95" s="3">
-        <v>1456675</v>
+        <v>2169838</v>
       </c>
       <c r="E95" s="6">
         <v>2019</v>
@@ -3489,17 +3734,17 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
+      <c r="A96" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C96" s="2">
-        <v>3</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E96" s="6">
         <v>2019</v>
@@ -3513,17 +3758,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
+      <c r="A97" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>205480</v>
+        <v>305958</v>
       </c>
       <c r="C97" s="3">
-        <v>108292</v>
+        <v>161246</v>
       </c>
       <c r="D97" s="3">
-        <v>97188</v>
+        <v>144711</v>
       </c>
       <c r="E97" s="6">
         <v>2019</v>
@@ -3537,17 +3782,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
+      <c r="A98" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>248664</v>
+        <v>370420</v>
       </c>
       <c r="C98" s="3">
-        <v>244101</v>
+        <v>363627</v>
       </c>
       <c r="D98" s="3">
-        <v>4563</v>
+        <v>6793</v>
       </c>
       <c r="E98" s="6">
         <v>2019</v>
@@ -3561,17 +3806,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
+      <c r="A99" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>156551</v>
+        <v>233203</v>
       </c>
       <c r="C99" s="3">
-        <v>139793</v>
+        <v>208241</v>
       </c>
       <c r="D99" s="3">
-        <v>16759</v>
+        <v>24962</v>
       </c>
       <c r="E99" s="6">
         <v>2019</v>
@@ -3585,17 +3830,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
+      <c r="A100" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>90159</v>
+        <v>134187</v>
       </c>
       <c r="C100" s="3">
-        <v>78815</v>
+        <v>117377</v>
       </c>
       <c r="D100" s="3">
-        <v>11344</v>
+        <v>16810</v>
       </c>
       <c r="E100" s="6">
         <v>2019</v>
@@ -3609,17 +3854,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
+      <c r="A101" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>36478</v>
+        <v>54350</v>
       </c>
       <c r="C101" s="3">
-        <v>33055</v>
+        <v>49250</v>
       </c>
       <c r="D101" s="3">
-        <v>3423</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="6">
         <v>2019</v>
@@ -3633,17 +3878,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
+      <c r="A102" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>23445</v>
+        <v>34898</v>
       </c>
       <c r="C102" s="3">
-        <v>16171</v>
+        <v>24058</v>
       </c>
       <c r="D102" s="3">
-        <v>7275</v>
+        <v>10840</v>
       </c>
       <c r="E102" s="6">
         <v>2019</v>
@@ -3657,17 +3902,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
+      <c r="A103" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>376087</v>
+        <v>560343</v>
       </c>
       <c r="C103" s="3">
-        <v>123506</v>
+        <v>184020</v>
       </c>
       <c r="D103" s="3">
-        <v>252581</v>
+        <v>376323</v>
       </c>
       <c r="E103" s="6">
         <v>2019</v>
@@ -3681,17 +3926,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="5" t="s">
-        <v>231</v>
+      <c r="A104" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>243024</v>
+        <v>362066</v>
       </c>
       <c r="C104" s="3">
-        <v>47968</v>
+        <v>71439</v>
       </c>
       <c r="D104" s="3">
-        <v>195056</v>
+        <v>290627</v>
       </c>
       <c r="E104" s="6">
         <v>2019</v>
@@ -3705,17 +3950,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>97</v>
+      <c r="A105" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>83982</v>
+        <v>125110</v>
       </c>
       <c r="C105" s="3">
-        <v>19738</v>
+        <v>29404</v>
       </c>
       <c r="D105" s="3">
-        <v>64244</v>
+        <v>95706</v>
       </c>
       <c r="E105" s="6">
         <v>2019</v>
@@ -3729,17 +3974,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>232</v>
+      <c r="A106" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>8420</v>
+        <v>12544</v>
       </c>
       <c r="C106" s="3">
-        <v>5524</v>
+        <v>8230</v>
       </c>
       <c r="D106" s="3">
-        <v>2896</v>
+        <v>4314</v>
       </c>
       <c r="E106" s="6">
         <v>2019</v>
@@ -3753,17 +3998,17 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
+      <c r="A107" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="C107" s="2">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="6">
         <v>2019</v>
@@ -3777,17 +4022,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>99</v>
+      <c r="A108" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>2597</v>
+        <v>3870</v>
       </c>
       <c r="C108" s="3">
-        <v>2558</v>
+        <v>3812</v>
       </c>
       <c r="D108" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E108" s="6">
         <v>2019</v>
@@ -3801,17 +4046,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
+      <c r="A109" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>12909</v>
+        <v>19236</v>
       </c>
       <c r="C109" s="3">
-        <v>1472</v>
+        <v>2191</v>
       </c>
       <c r="D109" s="3">
-        <v>11438</v>
+        <v>17045</v>
       </c>
       <c r="E109" s="6">
         <v>2019</v>
@@ -3825,14 +4070,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>101</v>
+      <c r="A110" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>1561</v>
+        <v>2326</v>
       </c>
       <c r="C110" s="3">
-        <v>1560</v>
+        <v>2325</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -3849,17 +4094,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="5" t="s">
-        <v>102</v>
+      <c r="A111" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>181696</v>
+        <v>270746</v>
       </c>
       <c r="C111" s="3">
-        <v>10265</v>
+        <v>15292</v>
       </c>
       <c r="D111" s="3">
-        <v>171432</v>
+        <v>255454</v>
       </c>
       <c r="E111" s="6">
         <v>2019</v>
@@ -3873,14 +4118,14 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="5" t="s">
-        <v>103</v>
+      <c r="A112" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C112" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -3897,17 +4142,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="5" t="s">
-        <v>104</v>
+      <c r="A113" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1440630</v>
+        <v>2143277</v>
       </c>
       <c r="C113" s="3">
-        <v>1090049</v>
+        <v>1622505</v>
       </c>
       <c r="D113" s="3">
-        <v>350580</v>
+        <v>520772</v>
       </c>
       <c r="E113" s="6">
         <v>2019</v>
@@ -3921,17 +4166,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="5" t="s">
-        <v>105</v>
+      <c r="A114" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>654719</v>
+        <v>973545</v>
       </c>
       <c r="C114" s="3">
-        <v>401393</v>
+        <v>597369</v>
       </c>
       <c r="D114" s="3">
-        <v>253327</v>
+        <v>376176</v>
       </c>
       <c r="E114" s="6">
         <v>2019</v>
@@ -3945,17 +4190,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="5" t="s">
-        <v>106</v>
+      <c r="A115" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>4609187</v>
+        <v>6861448</v>
       </c>
       <c r="C115" s="3">
-        <v>3179825</v>
+        <v>4735113</v>
       </c>
       <c r="D115" s="3">
-        <v>1429363</v>
+        <v>2126336</v>
       </c>
       <c r="E115" s="6">
         <v>2019</v>
@@ -3969,17 +4214,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="5" t="s">
-        <v>107</v>
+      <c r="A116" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>10718105</v>
+        <v>15912735</v>
       </c>
       <c r="C116" s="3">
-        <v>4431926</v>
+        <v>6594068</v>
       </c>
       <c r="D116" s="3">
-        <v>6286179</v>
+        <v>9318667</v>
       </c>
       <c r="E116" s="6">
         <v>2019</v>
@@ -3993,17 +4238,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="5" t="s">
-        <v>108</v>
+      <c r="A117" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>3957044</v>
+        <v>5882580</v>
       </c>
       <c r="C117" s="3">
-        <v>1990467</v>
+        <v>2962029</v>
       </c>
       <c r="D117" s="3">
-        <v>1966577</v>
+        <v>2920552</v>
       </c>
       <c r="E117" s="6">
         <v>2019</v>
@@ -4017,17 +4262,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="5" t="s">
-        <v>109</v>
+      <c r="A118" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>941936</v>
+        <v>1401986</v>
       </c>
       <c r="C118" s="3">
-        <v>181339</v>
+        <v>270072</v>
       </c>
       <c r="D118" s="3">
-        <v>760597</v>
+        <v>1131914</v>
       </c>
       <c r="E118" s="6">
         <v>2019</v>
@@ -4041,17 +4286,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="5" t="s">
-        <v>110</v>
+      <c r="A119" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>3456115</v>
+        <v>5135388</v>
       </c>
       <c r="C119" s="3">
-        <v>2193535</v>
+        <v>3262989</v>
       </c>
       <c r="D119" s="3">
-        <v>1262580</v>
+        <v>1872398</v>
       </c>
       <c r="E119" s="6">
         <v>2019</v>
@@ -4065,17 +4310,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="5" t="s">
-        <v>111</v>
+      <c r="A120" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>35933</v>
+        <v>53440</v>
       </c>
       <c r="C120" s="3">
-        <v>19393</v>
+        <v>28863</v>
       </c>
       <c r="D120" s="3">
-        <v>16540</v>
+        <v>24577</v>
       </c>
       <c r="E120" s="6">
         <v>2019</v>
@@ -4089,17 +4334,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="5" t="s">
-        <v>112</v>
+      <c r="A121" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>4527585</v>
+        <v>6737385</v>
       </c>
       <c r="C121" s="3">
-        <v>3901949</v>
+        <v>5808733</v>
       </c>
       <c r="D121" s="3">
-        <v>625636</v>
+        <v>928652</v>
       </c>
       <c r="E121" s="6">
         <v>2019</v>
@@ -4113,17 +4358,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="5" t="s">
-        <v>113</v>
+      <c r="A122" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>528634</v>
+        <v>786818</v>
       </c>
       <c r="C122" s="3">
-        <v>483076</v>
+        <v>719200</v>
       </c>
       <c r="D122" s="3">
-        <v>45558</v>
+        <v>67618</v>
       </c>
       <c r="E122" s="6">
         <v>2019</v>
@@ -4137,17 +4382,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="5" t="s">
-        <v>114</v>
+      <c r="A123" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>373963</v>
+        <v>555418</v>
       </c>
       <c r="C123" s="3">
-        <v>242409</v>
+        <v>360520</v>
       </c>
       <c r="D123" s="3">
-        <v>131554</v>
+        <v>194898</v>
       </c>
       <c r="E123" s="6">
         <v>2019</v>
@@ -4161,17 +4406,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
+      <c r="A124" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>2134859</v>
+        <v>3174972</v>
       </c>
       <c r="C124" s="3">
-        <v>1633152</v>
+        <v>2429957</v>
       </c>
       <c r="D124" s="3">
-        <v>501708</v>
+        <v>745015</v>
       </c>
       <c r="E124" s="6">
         <v>2019</v>
@@ -4185,17 +4430,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="5" t="s">
-        <v>116</v>
+      <c r="A125" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>48433</v>
+        <v>72150</v>
       </c>
       <c r="C125" s="3">
-        <v>41041</v>
+        <v>61142</v>
       </c>
       <c r="D125" s="3">
-        <v>7392</v>
+        <v>11008</v>
       </c>
       <c r="E125" s="6">
         <v>2019</v>
@@ -4209,17 +4454,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="5" t="s">
-        <v>233</v>
+      <c r="A126" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D126" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E126" s="6">
         <v>2019</v>
@@ -4233,17 +4478,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="5" t="s">
-        <v>117</v>
+      <c r="A127" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>614046</v>
+        <v>910765</v>
       </c>
       <c r="C127" s="3">
-        <v>174786</v>
+        <v>259881</v>
       </c>
       <c r="D127" s="3">
-        <v>439260</v>
+        <v>650884</v>
       </c>
       <c r="E127" s="6">
         <v>2019</v>
@@ -4257,17 +4502,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="5" t="s">
-        <v>118</v>
+      <c r="A128" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>166771</v>
+        <v>248174</v>
       </c>
       <c r="C128" s="3">
-        <v>91243</v>
+        <v>135821</v>
       </c>
       <c r="D128" s="3">
-        <v>75527</v>
+        <v>112354</v>
       </c>
       <c r="E128" s="6">
         <v>2019</v>
@@ -4281,17 +4526,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
+      <c r="A129" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>437529</v>
+        <v>650366</v>
       </c>
       <c r="C129" s="3">
-        <v>170189</v>
+        <v>253260</v>
       </c>
       <c r="D129" s="3">
-        <v>267340</v>
+        <v>397106</v>
       </c>
       <c r="E129" s="6">
         <v>2019</v>
@@ -4305,14 +4550,14 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="5" t="s">
-        <v>120</v>
+      <c r="A130" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C130" s="2">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -4329,17 +4574,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="5" t="s">
-        <v>121</v>
+      <c r="A131" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>559551</v>
+        <v>831423</v>
       </c>
       <c r="C131" s="3">
-        <v>352415</v>
+        <v>524614</v>
       </c>
       <c r="D131" s="3">
-        <v>207136</v>
+        <v>306809</v>
       </c>
       <c r="E131" s="6">
         <v>2019</v>
@@ -4353,17 +4598,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="5" t="s">
-        <v>122</v>
+      <c r="A132" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>12735</v>
+        <v>18968</v>
       </c>
       <c r="C132" s="3">
-        <v>6782</v>
+        <v>10104</v>
       </c>
       <c r="D132" s="3">
-        <v>5954</v>
+        <v>8864</v>
       </c>
       <c r="E132" s="6">
         <v>2019</v>
@@ -4377,17 +4622,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="5" t="s">
-        <v>123</v>
+      <c r="A133" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>11099</v>
+        <v>16518</v>
       </c>
       <c r="C133" s="3">
-        <v>3768</v>
+        <v>5607</v>
       </c>
       <c r="D133" s="3">
-        <v>7331</v>
+        <v>10911</v>
       </c>
       <c r="E133" s="6">
         <v>2019</v>
@@ -4401,17 +4646,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>124</v>
+      <c r="A134" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>72538</v>
+        <v>107946</v>
       </c>
       <c r="C134" s="3">
-        <v>57047</v>
+        <v>84882</v>
       </c>
       <c r="D134" s="3">
-        <v>15491</v>
+        <v>23065</v>
       </c>
       <c r="E134" s="6">
         <v>2019</v>
@@ -4425,17 +4670,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="5" t="s">
-        <v>125</v>
+      <c r="A135" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>2003</v>
+        <v>2979</v>
       </c>
       <c r="C135" s="3">
-        <v>1482</v>
+        <v>2208</v>
       </c>
       <c r="D135" s="2">
-        <v>521</v>
+        <v>771</v>
       </c>
       <c r="E135" s="6">
         <v>2019</v>
@@ -4449,17 +4694,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>126</v>
+      <c r="A136" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>356689</v>
+        <v>530969</v>
       </c>
       <c r="C136" s="3">
-        <v>165072</v>
+        <v>245763</v>
       </c>
       <c r="D136" s="3">
-        <v>191617</v>
+        <v>285206</v>
       </c>
       <c r="E136" s="6">
         <v>2019</v>
@@ -4473,17 +4718,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>127</v>
+      <c r="A137" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1506427</v>
+        <v>2241147</v>
       </c>
       <c r="C137" s="3">
-        <v>1274618</v>
+        <v>1897301</v>
       </c>
       <c r="D137" s="3">
-        <v>231810</v>
+        <v>343846</v>
       </c>
       <c r="E137" s="6">
         <v>2019</v>
@@ -4497,17 +4742,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="5" t="s">
-        <v>128</v>
+      <c r="A138" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>406460</v>
+        <v>604030</v>
       </c>
       <c r="C138" s="3">
-        <v>278223</v>
+        <v>414082</v>
       </c>
       <c r="D138" s="3">
-        <v>128237</v>
+        <v>189948</v>
       </c>
       <c r="E138" s="6">
         <v>2019</v>
@@ -4521,17 +4766,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="2">
-        <v>817</v>
+      <c r="A139" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1213</v>
       </c>
       <c r="C139" s="2">
-        <v>360</v>
+        <v>537</v>
       </c>
       <c r="D139" s="2">
-        <v>457</v>
+        <v>676</v>
       </c>
       <c r="E139" s="6">
         <v>2019</v>
@@ -4545,17 +4790,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="5" t="s">
-        <v>130</v>
+      <c r="A140" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>1037373</v>
+        <v>1542040</v>
       </c>
       <c r="C140" s="3">
-        <v>516305</v>
+        <v>768511</v>
       </c>
       <c r="D140" s="3">
-        <v>521068</v>
+        <v>773529</v>
       </c>
       <c r="E140" s="6">
         <v>2019</v>
@@ -4569,17 +4814,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="5" t="s">
-        <v>131</v>
+      <c r="A141" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>1432851</v>
+        <v>2130314</v>
       </c>
       <c r="C141" s="3">
-        <v>207345</v>
+        <v>308662</v>
       </c>
       <c r="D141" s="3">
-        <v>1225506</v>
+        <v>1821652</v>
       </c>
       <c r="E141" s="6">
         <v>2019</v>
@@ -4593,17 +4838,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="5" t="s">
-        <v>132</v>
+      <c r="A142" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>96671</v>
+        <v>143865</v>
       </c>
       <c r="C142" s="3">
-        <v>65700</v>
+        <v>97824</v>
       </c>
       <c r="D142" s="3">
-        <v>30971</v>
+        <v>46041</v>
       </c>
       <c r="E142" s="6">
         <v>2019</v>
@@ -4617,17 +4862,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>133</v>
+      <c r="A143" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>65236</v>
+        <v>97029</v>
       </c>
       <c r="C143" s="3">
-        <v>51464</v>
+        <v>76624</v>
       </c>
       <c r="D143" s="3">
-        <v>13772</v>
+        <v>20405</v>
       </c>
       <c r="E143" s="6">
         <v>2019</v>
@@ -4641,17 +4886,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="5" t="s">
-        <v>234</v>
+      <c r="A144" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>121234</v>
+        <v>180485</v>
       </c>
       <c r="C144" s="3">
-        <v>101811</v>
+        <v>151637</v>
       </c>
       <c r="D144" s="3">
-        <v>19423</v>
+        <v>28847</v>
       </c>
       <c r="E144" s="6">
         <v>2019</v>
@@ -4665,17 +4910,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>134</v>
+      <c r="A145" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>91944</v>
+        <v>136975</v>
       </c>
       <c r="C145" s="3">
-        <v>89506</v>
+        <v>133344</v>
       </c>
       <c r="D145" s="3">
-        <v>2439</v>
+        <v>3631</v>
       </c>
       <c r="E145" s="6">
         <v>2019</v>
@@ -4689,17 +4934,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="5" t="s">
-        <v>135</v>
+      <c r="A146" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>55280</v>
+        <v>82293</v>
       </c>
       <c r="C146" s="3">
-        <v>12089</v>
+        <v>18011</v>
       </c>
       <c r="D146" s="3">
-        <v>43191</v>
+        <v>64282</v>
       </c>
       <c r="E146" s="6">
         <v>2019</v>
@@ -4713,17 +4958,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="5" t="s">
-        <v>136</v>
+      <c r="A147" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>344899</v>
+        <v>513919</v>
       </c>
       <c r="C147" s="3">
-        <v>36796</v>
+        <v>54818</v>
       </c>
       <c r="D147" s="3">
-        <v>308103</v>
+        <v>459100</v>
       </c>
       <c r="E147" s="6">
         <v>2019</v>
@@ -4737,17 +4982,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="5" t="s">
-        <v>137</v>
+      <c r="A148" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>149762</v>
+        <v>222927</v>
       </c>
       <c r="C148" s="3">
-        <v>92702</v>
+        <v>137952</v>
       </c>
       <c r="D148" s="3">
-        <v>57060</v>
+        <v>84976</v>
       </c>
       <c r="E148" s="6">
         <v>2019</v>
@@ -4761,17 +5006,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="5" t="s">
-        <v>138</v>
+      <c r="A149" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>9432</v>
+        <v>14039</v>
       </c>
       <c r="C149" s="3">
-        <v>6891</v>
+        <v>10264</v>
       </c>
       <c r="D149" s="3">
-        <v>2540</v>
+        <v>3774</v>
       </c>
       <c r="E149" s="6">
         <v>2019</v>
@@ -4785,17 +5030,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="5" t="s">
-        <v>139</v>
+      <c r="A150" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>6140013</v>
+        <v>9144503</v>
       </c>
       <c r="C150" s="3">
-        <v>2549052</v>
+        <v>3795134</v>
       </c>
       <c r="D150" s="3">
-        <v>3590961</v>
+        <v>5349369</v>
       </c>
       <c r="E150" s="6">
         <v>2019</v>
@@ -4809,17 +5054,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="5" t="s">
-        <v>235</v>
+      <c r="A151" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>699864</v>
+        <v>1042502</v>
       </c>
       <c r="C151" s="3">
-        <v>441725</v>
+        <v>657918</v>
       </c>
       <c r="D151" s="3">
-        <v>258139</v>
+        <v>384584</v>
       </c>
       <c r="E151" s="6">
         <v>2019</v>
@@ -4833,17 +5078,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>236</v>
+      <c r="A152" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>237907</v>
+        <v>353798</v>
       </c>
       <c r="C152" s="3">
-        <v>206132</v>
+        <v>306783</v>
       </c>
       <c r="D152" s="3">
-        <v>31775</v>
+        <v>47015</v>
       </c>
       <c r="E152" s="6">
         <v>2019</v>
@@ -4857,17 +5102,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
+      <c r="A153" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>86635</v>
+        <v>128961</v>
       </c>
       <c r="C153" s="3">
-        <v>79221</v>
+        <v>117980</v>
       </c>
       <c r="D153" s="3">
-        <v>7414</v>
+        <v>10981</v>
       </c>
       <c r="E153" s="6">
         <v>2019</v>
@@ -4881,17 +5126,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>141</v>
+      <c r="A154" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>925706</v>
+        <v>1376038</v>
       </c>
       <c r="C154" s="3">
-        <v>641293</v>
+        <v>954586</v>
       </c>
       <c r="D154" s="3">
-        <v>284413</v>
+        <v>421452</v>
       </c>
       <c r="E154" s="6">
         <v>2019</v>
@@ -4905,17 +5150,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
+      <c r="A155" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>634922</v>
+        <v>943009</v>
       </c>
       <c r="C155" s="3">
-        <v>143387</v>
+        <v>213244</v>
       </c>
       <c r="D155" s="3">
-        <v>491535</v>
+        <v>729765</v>
       </c>
       <c r="E155" s="6">
         <v>2019</v>
@@ -4929,17 +5174,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>237</v>
+      <c r="A156" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="3">
-        <v>10051</v>
+        <v>14942</v>
       </c>
       <c r="C156" s="3">
-        <v>7178</v>
+        <v>10691</v>
       </c>
       <c r="D156" s="3">
-        <v>2872</v>
+        <v>4251</v>
       </c>
       <c r="E156" s="6">
         <v>2019</v>
@@ -4953,17 +5198,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="5" t="s">
-        <v>143</v>
+      <c r="A157" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>11815</v>
+        <v>17558</v>
       </c>
       <c r="C157" s="3">
-        <v>8180</v>
+        <v>12179</v>
       </c>
       <c r="D157" s="3">
-        <v>3635</v>
+        <v>5379</v>
       </c>
       <c r="E157" s="6">
         <v>2019</v>
@@ -4977,17 +5222,17 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>144</v>
+      <c r="A158" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
       </c>
       <c r="D158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="6">
         <v>2019</v>
@@ -5001,17 +5246,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>145</v>
+      <c r="A159" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>10632</v>
+        <v>15842</v>
       </c>
       <c r="C159" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="D159" s="3">
-        <v>10441</v>
+        <v>15556</v>
       </c>
       <c r="E159" s="6">
         <v>2019</v>
@@ -5025,17 +5270,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>146</v>
+      <c r="A160" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>66156</v>
+        <v>98346</v>
       </c>
       <c r="C160" s="3">
-        <v>53187</v>
+        <v>79112</v>
       </c>
       <c r="D160" s="3">
-        <v>12969</v>
+        <v>19234</v>
       </c>
       <c r="E160" s="6">
         <v>2019</v>
@@ -5049,17 +5294,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="5" t="s">
-        <v>147</v>
+      <c r="A161" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>6077</v>
+        <v>9041</v>
       </c>
       <c r="C161" s="3">
-        <v>6032</v>
+        <v>8973</v>
       </c>
       <c r="D161" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E161" s="6">
         <v>2019</v>
@@ -5073,17 +5318,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="5" t="s">
-        <v>238</v>
+      <c r="A162" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E162" s="6">
         <v>2019</v>
@@ -5097,17 +5342,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>148</v>
+      <c r="A163" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>17400861</v>
+        <v>25918849</v>
       </c>
       <c r="C163" s="3">
-        <v>8693379</v>
+        <v>12950660</v>
       </c>
       <c r="D163" s="3">
-        <v>8707482</v>
+        <v>12968189</v>
       </c>
       <c r="E163" s="6">
         <v>2019</v>
@@ -5121,14 +5366,14 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>149</v>
+      <c r="A164" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>5484</v>
+        <v>8172</v>
       </c>
       <c r="C164" s="3">
-        <v>5483</v>
+        <v>8171</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
@@ -5145,17 +5390,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="5" t="s">
-        <v>150</v>
+      <c r="A165" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>667312</v>
+        <v>993896</v>
       </c>
       <c r="C165" s="3">
-        <v>461454</v>
+        <v>687200</v>
       </c>
       <c r="D165" s="3">
-        <v>205858</v>
+        <v>306696</v>
       </c>
       <c r="E165" s="6">
         <v>2019</v>
@@ -5169,17 +5414,17 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>151</v>
+      <c r="A166" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>2176</v>
+        <v>3242</v>
       </c>
       <c r="C166" s="3">
-        <v>2153</v>
+        <v>3207</v>
       </c>
       <c r="D166" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E166" s="6">
         <v>2019</v>
@@ -5193,17 +5438,17 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="5" t="s">
-        <v>152</v>
+      <c r="A167" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>28478</v>
+        <v>42412</v>
       </c>
       <c r="C167" s="3">
-        <v>28464</v>
+        <v>42391</v>
       </c>
       <c r="D167" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E167" s="6">
         <v>2019</v>
@@ -5217,17 +5462,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="5" t="s">
-        <v>153</v>
+      <c r="A168" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>15200</v>
+        <v>22649</v>
       </c>
       <c r="C168" s="3">
-        <v>14311</v>
-      </c>
-      <c r="D168" s="2">
-        <v>889</v>
+        <v>21326</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1323</v>
       </c>
       <c r="E168" s="6">
         <v>2019</v>
@@ -5241,14 +5486,14 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="5" t="s">
-        <v>154</v>
+      <c r="A169" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>7911</v>
+        <v>11774</v>
       </c>
       <c r="C169" s="3">
-        <v>7911</v>
+        <v>11774</v>
       </c>
       <c r="D169" s="2">
         <v>0</v>
@@ -5265,17 +5510,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="5" t="s">
-        <v>155</v>
+      <c r="A170" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>57280</v>
+        <v>85327</v>
       </c>
       <c r="C170" s="3">
-        <v>42664</v>
+        <v>63547</v>
       </c>
       <c r="D170" s="3">
-        <v>14616</v>
+        <v>21779</v>
       </c>
       <c r="E170" s="6">
         <v>2019</v>
@@ -5289,8 +5534,8 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="5" t="s">
-        <v>156</v>
+      <c r="A171" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -5299,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="6">
         <v>2019</v>
@@ -5313,17 +5558,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="5" t="s">
-        <v>157</v>
+      <c r="A172" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>6463161</v>
+        <v>9627313</v>
       </c>
       <c r="C172" s="3">
-        <v>2010008</v>
+        <v>2994236</v>
       </c>
       <c r="D172" s="3">
-        <v>4453152</v>
+        <v>6633077</v>
       </c>
       <c r="E172" s="6">
         <v>2019</v>
@@ -5337,14 +5582,14 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="5" t="s">
-        <v>158</v>
+      <c r="A173" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>2249</v>
+        <v>3332</v>
       </c>
       <c r="C173" s="3">
-        <v>2248</v>
+        <v>3332</v>
       </c>
       <c r="D173" s="2">
         <v>0</v>
@@ -5361,17 +5606,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="5" t="s">
-        <v>159</v>
+      <c r="A174" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>2081749</v>
+        <v>3101138</v>
       </c>
       <c r="C174" s="3">
-        <v>838568</v>
+        <v>1249370</v>
       </c>
       <c r="D174" s="3">
-        <v>1243181</v>
+        <v>1851768</v>
       </c>
       <c r="E174" s="6">
         <v>2019</v>
@@ -5385,17 +5630,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="5" t="s">
-        <v>160</v>
+      <c r="A175" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>695207</v>
+        <v>1035816</v>
       </c>
       <c r="C175" s="3">
-        <v>536942</v>
+        <v>799982</v>
       </c>
       <c r="D175" s="3">
-        <v>158265</v>
+        <v>235834</v>
       </c>
       <c r="E175" s="6">
         <v>2019</v>
@@ -5409,17 +5654,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>161</v>
+      <c r="A176" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>3319</v>
+        <v>4942</v>
       </c>
       <c r="C176" s="3">
-        <v>3290</v>
+        <v>4898</v>
       </c>
       <c r="D176" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E176" s="6">
         <v>2019</v>
@@ -5433,17 +5678,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>162</v>
+      <c r="A177" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>119530</v>
+        <v>178070</v>
       </c>
       <c r="C177" s="3">
-        <v>83036</v>
+        <v>123721</v>
       </c>
       <c r="D177" s="3">
-        <v>36494</v>
+        <v>54350</v>
       </c>
       <c r="E177" s="6">
         <v>2019</v>
@@ -5457,17 +5702,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>163</v>
+      <c r="A178" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>74071</v>
+        <v>109968</v>
       </c>
       <c r="C178" s="3">
-        <v>31857</v>
+        <v>47322</v>
       </c>
       <c r="D178" s="3">
-        <v>42214</v>
+        <v>62646</v>
       </c>
       <c r="E178" s="6">
         <v>2019</v>
@@ -5481,14 +5726,14 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>164</v>
+      <c r="A179" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>1973</v>
+        <v>2939</v>
       </c>
       <c r="C179" s="3">
-        <v>1973</v>
+        <v>2939</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -5505,17 +5750,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>165</v>
+      <c r="A180" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>165483</v>
+        <v>246563</v>
       </c>
       <c r="C180" s="3">
-        <v>144683</v>
+        <v>215590</v>
       </c>
       <c r="D180" s="3">
-        <v>20800</v>
+        <v>30973</v>
       </c>
       <c r="E180" s="6">
         <v>2019</v>
@@ -5529,17 +5774,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>166</v>
+      <c r="A181" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>380409</v>
+        <v>566794</v>
       </c>
       <c r="C181" s="3">
-        <v>201598</v>
+        <v>300338</v>
       </c>
       <c r="D181" s="3">
-        <v>178812</v>
+        <v>266455</v>
       </c>
       <c r="E181" s="6">
         <v>2019</v>
@@ -5553,14 +5798,14 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>167</v>
+      <c r="A182" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="B182" s="3">
-        <v>1140</v>
+        <v>1697</v>
       </c>
       <c r="C182" s="3">
-        <v>1139</v>
+        <v>1696</v>
       </c>
       <c r="D182" s="2">
         <v>1</v>
@@ -5577,14 +5822,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B183" s="2">
-        <v>887</v>
-      </c>
-      <c r="C183" s="2">
-        <v>887</v>
+      <c r="A183" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1321</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1321</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5601,14 +5846,14 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>169</v>
+      <c r="A184" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>2632</v>
+        <v>3922</v>
       </c>
       <c r="C184" s="3">
-        <v>2632</v>
+        <v>3921</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -5625,17 +5870,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
+      <c r="A185" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>140103</v>
+        <v>208720</v>
       </c>
       <c r="C185" s="3">
-        <v>135215</v>
+        <v>201439</v>
       </c>
       <c r="D185" s="3">
-        <v>4888</v>
+        <v>7282</v>
       </c>
       <c r="E185" s="6">
         <v>2019</v>
@@ -5649,17 +5894,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>171</v>
+      <c r="A186" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>17679</v>
+        <v>26341</v>
       </c>
       <c r="C186" s="3">
-        <v>16202</v>
+        <v>24141</v>
       </c>
       <c r="D186" s="3">
-        <v>1477</v>
+        <v>2200</v>
       </c>
       <c r="E186" s="6">
         <v>2019</v>
@@ -5673,17 +5918,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>172</v>
+      <c r="A187" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>40650</v>
+        <v>60570</v>
       </c>
       <c r="C187" s="3">
-        <v>40046</v>
+        <v>59671</v>
       </c>
       <c r="D187" s="2">
-        <v>603</v>
+        <v>899</v>
       </c>
       <c r="E187" s="6">
         <v>2019</v>
@@ -5697,17 +5942,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>173</v>
+      <c r="A188" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>51513</v>
+        <v>76704</v>
       </c>
       <c r="C188" s="3">
-        <v>49783</v>
+        <v>74129</v>
       </c>
       <c r="D188" s="3">
-        <v>1730</v>
+        <v>2575</v>
       </c>
       <c r="E188" s="6">
         <v>2019</v>
@@ -5721,17 +5966,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="5" t="s">
-        <v>174</v>
+      <c r="A189" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>43275</v>
+        <v>64475</v>
       </c>
       <c r="C189" s="3">
-        <v>43212</v>
+        <v>64381</v>
       </c>
       <c r="D189" s="2">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E189" s="6">
         <v>2019</v>
@@ -5745,17 +5990,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="5" t="s">
-        <v>175</v>
+      <c r="A190" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="3">
-        <v>1621</v>
+        <v>2416</v>
       </c>
       <c r="C190" s="3">
-        <v>1620</v>
+        <v>2414</v>
       </c>
       <c r="D190" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" s="6">
         <v>2019</v>
@@ -5769,17 +6014,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="5" t="s">
-        <v>176</v>
+      <c r="A191" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>3377049</v>
+        <v>5029997</v>
       </c>
       <c r="C191" s="3">
-        <v>2619584</v>
+        <v>3902490</v>
       </c>
       <c r="D191" s="3">
-        <v>757465</v>
+        <v>1127508</v>
       </c>
       <c r="E191" s="6">
         <v>2019</v>
@@ -5793,14 +6038,14 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="5" t="s">
-        <v>177</v>
+      <c r="A192" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C192" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -5817,17 +6062,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>178</v>
+      <c r="A193" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>38596</v>
+        <v>57432</v>
       </c>
       <c r="C193" s="3">
-        <v>33680</v>
+        <v>50173</v>
       </c>
       <c r="D193" s="3">
-        <v>4916</v>
+        <v>7259</v>
       </c>
       <c r="E193" s="6">
         <v>2019</v>
@@ -5841,17 +6086,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="5" t="s">
-        <v>179</v>
+      <c r="A194" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>409440</v>
+        <v>609932</v>
       </c>
       <c r="C194" s="3">
-        <v>407561</v>
+        <v>607132</v>
       </c>
       <c r="D194" s="3">
-        <v>1879</v>
+        <v>2800</v>
       </c>
       <c r="E194" s="6">
         <v>2019</v>
@@ -5865,17 +6110,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="5" t="s">
-        <v>180</v>
+      <c r="A195" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>102650</v>
+        <v>152953</v>
       </c>
       <c r="C195" s="3">
-        <v>101975</v>
-      </c>
-      <c r="D195" s="2">
-        <v>675</v>
+        <v>151947</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1006</v>
       </c>
       <c r="E195" s="6">
         <v>2019</v>
@@ -5889,17 +6134,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>181</v>
+      <c r="A196" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1536180</v>
+        <v>2288206</v>
       </c>
       <c r="C196" s="3">
-        <v>486737</v>
+        <v>725180</v>
       </c>
       <c r="D196" s="3">
-        <v>1049443</v>
+        <v>1563026</v>
       </c>
       <c r="E196" s="6">
         <v>2019</v>
@@ -5913,17 +6158,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>239</v>
+      <c r="A197" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>124658</v>
+        <v>185490</v>
       </c>
       <c r="C197" s="3">
-        <v>41831</v>
+        <v>62320</v>
       </c>
       <c r="D197" s="3">
-        <v>82827</v>
+        <v>123170</v>
       </c>
       <c r="E197" s="6">
         <v>2019</v>
@@ -5937,8 +6182,8 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>240</v>
+      <c r="A198" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2">
         <v>0</v>
@@ -5947,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="6">
         <v>2019</v>
@@ -5961,17 +6206,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="5" t="s">
-        <v>182</v>
+      <c r="A199" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B199" s="3">
-        <v>1365</v>
+        <v>2034</v>
       </c>
       <c r="C199" s="3">
-        <v>1358</v>
+        <v>2024</v>
       </c>
       <c r="D199" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E199" s="6">
         <v>2019</v>
@@ -5985,17 +6230,17 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="5" t="s">
-        <v>183</v>
+      <c r="A200" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="2">
-        <v>378</v>
+        <v>564</v>
       </c>
       <c r="C200" s="2">
-        <v>378</v>
+        <v>563</v>
       </c>
       <c r="D200" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" s="6">
         <v>2019</v>
@@ -6009,14 +6254,14 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="5" t="s">
-        <v>184</v>
+      <c r="A201" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="2">
-        <v>625</v>
+        <v>931</v>
       </c>
       <c r="C201" s="2">
-        <v>625</v>
+        <v>931</v>
       </c>
       <c r="D201" s="2">
         <v>0</v>
@@ -6033,17 +6278,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="5" t="s">
-        <v>185</v>
+      <c r="A202" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>61618</v>
+        <v>91799</v>
       </c>
       <c r="C202" s="3">
-        <v>58046</v>
+        <v>86481</v>
       </c>
       <c r="D202" s="3">
-        <v>3572</v>
+        <v>5318</v>
       </c>
       <c r="E202" s="6">
         <v>2019</v>
@@ -6057,17 +6302,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="5" t="s">
-        <v>241</v>
+      <c r="A203" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>14635</v>
+        <v>21806</v>
       </c>
       <c r="C203" s="3">
-        <v>13141</v>
+        <v>19580</v>
       </c>
       <c r="D203" s="3">
-        <v>1494</v>
+        <v>2226</v>
       </c>
       <c r="E203" s="6">
         <v>2019</v>
@@ -6081,17 +6326,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="5" t="s">
-        <v>186</v>
+      <c r="A204" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>45385</v>
+        <v>67626</v>
       </c>
       <c r="C204" s="3">
-        <v>20601</v>
+        <v>30696</v>
       </c>
       <c r="D204" s="3">
-        <v>24784</v>
+        <v>36930</v>
       </c>
       <c r="E204" s="6">
         <v>2019</v>
@@ -6105,17 +6350,17 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>187</v>
+      <c r="A205" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C205" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205" s="6">
         <v>2019</v>
@@ -6129,17 +6374,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="5" t="s">
-        <v>242</v>
+      <c r="A206" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>265679</v>
+        <v>395256</v>
       </c>
       <c r="C206" s="3">
-        <v>130005</v>
+        <v>193691</v>
       </c>
       <c r="D206" s="3">
-        <v>135674</v>
+        <v>201565</v>
       </c>
       <c r="E206" s="6">
         <v>2019</v>
@@ -6153,17 +6398,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="5" t="s">
-        <v>188</v>
+      <c r="A207" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>348957</v>
+        <v>519608</v>
       </c>
       <c r="C207" s="3">
-        <v>67358</v>
+        <v>100347</v>
       </c>
       <c r="D207" s="3">
-        <v>281598</v>
+        <v>419261</v>
       </c>
       <c r="E207" s="6">
         <v>2019</v>
@@ -6177,17 +6422,17 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="5" t="s">
-        <v>189</v>
+      <c r="A208" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="2">
-        <v>501</v>
+        <v>747</v>
       </c>
       <c r="C208" s="2">
-        <v>499</v>
+        <v>744</v>
       </c>
       <c r="D208" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E208" s="6">
         <v>2019</v>
@@ -6201,17 +6446,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="5" t="s">
-        <v>190</v>
+      <c r="A209" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="B209" s="2">
-        <v>668</v>
+        <v>996</v>
       </c>
       <c r="C209" s="2">
-        <v>637</v>
+        <v>949</v>
       </c>
       <c r="D209" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E209" s="6">
         <v>2019</v>
@@ -6225,17 +6470,17 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>191</v>
+      <c r="A210" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
       </c>
       <c r="D210" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210" s="6">
         <v>2019</v>
@@ -6249,14 +6494,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>192</v>
+      <c r="A211" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="B211" s="3">
-        <v>1365</v>
+        <v>2034</v>
       </c>
       <c r="C211" s="3">
-        <v>1365</v>
+        <v>2034</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -6273,17 +6518,17 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>193</v>
+      <c r="A212" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>509</v>
+        <v>759</v>
       </c>
       <c r="C212" s="2">
-        <v>509</v>
+        <v>759</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="6">
         <v>2019</v>
@@ -6297,17 +6542,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>194</v>
+      <c r="A213" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>36374943</v>
+        <v>54186791</v>
       </c>
       <c r="C213" s="3">
-        <v>27414835</v>
+        <v>40843879</v>
       </c>
       <c r="D213" s="3">
-        <v>8960108</v>
+        <v>13342911</v>
       </c>
       <c r="E213" s="6">
         <v>2019</v>
@@ -6321,17 +6566,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>195</v>
+      <c r="A214" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>3824891</v>
+        <v>5697186</v>
       </c>
       <c r="C214" s="3">
-        <v>2117157</v>
+        <v>3153815</v>
       </c>
       <c r="D214" s="3">
-        <v>1707734</v>
+        <v>2543370</v>
       </c>
       <c r="E214" s="6">
         <v>2019</v>
@@ -6345,17 +6590,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>196</v>
+      <c r="A215" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>32540522</v>
+        <v>48475406</v>
       </c>
       <c r="C215" s="3">
-        <v>25296472</v>
+        <v>37688269</v>
       </c>
       <c r="D215" s="3">
-        <v>7244050</v>
+        <v>10787137</v>
       </c>
       <c r="E215" s="6">
         <v>2019</v>
@@ -6369,17 +6614,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="5" t="s">
-        <v>243</v>
+      <c r="A216" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>8350</v>
+        <v>12443</v>
       </c>
       <c r="C216" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D216" s="3">
-        <v>8324</v>
+        <v>12404</v>
       </c>
       <c r="E216" s="6">
         <v>2019</v>
@@ -6393,14 +6638,14 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="5" t="s">
-        <v>197</v>
+      <c r="A217" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>1157</v>
+        <v>1723</v>
       </c>
       <c r="C217" s="3">
-        <v>1157</v>
+        <v>1723</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -6417,17 +6662,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="5" t="s">
-        <v>198</v>
+      <c r="A218" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C218" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="6">
         <v>2019</v>
@@ -6441,17 +6686,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>244</v>
+      <c r="A219" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>10789427</v>
+        <v>16063370</v>
       </c>
       <c r="C219" s="3">
-        <v>3219831</v>
+        <v>4793346</v>
       </c>
       <c r="D219" s="3">
-        <v>7569596</v>
+        <v>11270024</v>
       </c>
       <c r="E219" s="6">
         <v>2019</v>
@@ -6465,17 +6710,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="5" t="s">
-        <v>245</v>
+      <c r="A220" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>9220976</v>
+        <v>13727899</v>
       </c>
       <c r="C220" s="3">
-        <v>2642457</v>
+        <v>3933537</v>
       </c>
       <c r="D220" s="3">
-        <v>6578519</v>
+        <v>9794362</v>
       </c>
       <c r="E220" s="6">
         <v>2019</v>
@@ -6489,14 +6734,14 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>246</v>
+      <c r="A221" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="2">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="C221" s="2">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -6513,17 +6758,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>199</v>
+      <c r="A222" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>22780</v>
+        <v>33940</v>
       </c>
       <c r="C222" s="3">
-        <v>22016</v>
-      </c>
-      <c r="D222" s="2">
-        <v>763</v>
+        <v>32802</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1137</v>
       </c>
       <c r="E222" s="6">
         <v>2019</v>
@@ -6537,17 +6782,17 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>200</v>
+      <c r="A223" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="6">
         <v>2019</v>
@@ -6561,17 +6806,17 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="5" t="s">
-        <v>201</v>
+      <c r="A224" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="6">
         <v>2019</v>
@@ -6585,17 +6830,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>247</v>
+      <c r="A225" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C225" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D225" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E225" s="6">
         <v>2019</v>
@@ -6609,17 +6854,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="5" t="s">
-        <v>202</v>
+      <c r="A226" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>54830</v>
+        <v>81689</v>
       </c>
       <c r="C226" s="3">
-        <v>14946</v>
+        <v>22267</v>
       </c>
       <c r="D226" s="3">
-        <v>39884</v>
+        <v>59422</v>
       </c>
       <c r="E226" s="6">
         <v>2019</v>
@@ -6633,17 +6878,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="5" t="s">
-        <v>203</v>
+      <c r="A227" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>6195</v>
+        <v>9230</v>
       </c>
       <c r="C227" s="3">
-        <v>5106</v>
+        <v>7607</v>
       </c>
       <c r="D227" s="3">
-        <v>1089</v>
+        <v>1623</v>
       </c>
       <c r="E227" s="6">
         <v>2019</v>
@@ -6657,17 +6902,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="5" t="s">
-        <v>204</v>
+      <c r="A228" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>1091213</v>
+        <v>1624703</v>
       </c>
       <c r="C228" s="3">
-        <v>287131</v>
+        <v>427671</v>
       </c>
       <c r="D228" s="3">
-        <v>804082</v>
+        <v>1197032</v>
       </c>
       <c r="E228" s="6">
         <v>2019</v>
@@ -6681,17 +6926,17 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="5" t="s">
-        <v>205</v>
+      <c r="A229" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C229" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="6">
         <v>2019</v>
@@ -6705,17 +6950,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="5" t="s">
-        <v>248</v>
+      <c r="A230" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>171293</v>
+        <v>255234</v>
       </c>
       <c r="C230" s="3">
-        <v>58078</v>
+        <v>86533</v>
       </c>
       <c r="D230" s="3">
-        <v>113215</v>
+        <v>168701</v>
       </c>
       <c r="E230" s="6">
         <v>2019</v>
@@ -6729,17 +6974,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="5" t="s">
-        <v>206</v>
+      <c r="A231" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="C231" s="2">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="6">
         <v>2019</v>
@@ -6753,17 +6998,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
+      <c r="A232" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>31560</v>
+        <v>47028</v>
       </c>
       <c r="C232" s="3">
-        <v>5215</v>
+        <v>7770</v>
       </c>
       <c r="D232" s="3">
-        <v>26345</v>
+        <v>39258</v>
       </c>
       <c r="E232" s="6">
         <v>2019</v>
@@ -6777,17 +7022,17 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="5" t="s">
-        <v>208</v>
+      <c r="A233" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="3">
-        <v>1775</v>
+        <v>2643</v>
       </c>
       <c r="C233" s="3">
-        <v>1775</v>
+        <v>2643</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="6">
         <v>2019</v>
@@ -6801,8 +7046,8 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>209</v>
+      <c r="A234" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -6811,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="6">
         <v>2019</v>
@@ -6825,8 +7070,8 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>210</v>
+      <c r="A235" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -6835,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="6">
         <v>2019</v>
@@ -6849,14 +7094,14 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>211</v>
+      <c r="A236" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>5190</v>
+        <v>7734</v>
       </c>
       <c r="C236" s="3">
-        <v>5190</v>
+        <v>7733</v>
       </c>
       <c r="D236" s="2">
         <v>1</v>
@@ -6873,17 +7118,17 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B237" s="2">
-        <v>908</v>
-      </c>
-      <c r="C237" s="2">
-        <v>908</v>
+      <c r="A237" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1352</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1352</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E237" s="6">
         <v>2019</v>
@@ -6897,14 +7142,14 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>213</v>
+      <c r="A238" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>1282</v>
+        <v>1896</v>
       </c>
       <c r="C238" s="3">
-        <v>1282</v>
+        <v>1896</v>
       </c>
       <c r="D238" s="2">
         <v>0</v>
@@ -6921,17 +7166,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>214</v>
+      <c r="A239" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>3109</v>
-      </c>
-      <c r="C239" s="2">
-        <v>714</v>
+        <v>4631</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1063</v>
       </c>
       <c r="D239" s="3">
-        <v>2395</v>
+        <v>3569</v>
       </c>
       <c r="E239" s="6">
         <v>2019</v>
@@ -6945,17 +7190,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>215</v>
+      <c r="A240" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>169541</v>
+        <v>252316</v>
       </c>
       <c r="C240" s="3">
-        <v>166919</v>
+        <v>248410</v>
       </c>
       <c r="D240" s="3">
-        <v>2621</v>
+        <v>3906</v>
       </c>
       <c r="E240" s="6">
         <v>2019</v>
@@ -6969,17 +7214,17 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B241" s="2">
-        <v>717</v>
-      </c>
-      <c r="C241" s="2">
-        <v>716</v>
+      <c r="A241" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1067</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1066</v>
       </c>
       <c r="D241" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" s="6">
         <v>2019</v>
@@ -6993,17 +7238,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>217</v>
+      <c r="A242" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>5488</v>
+        <v>8176</v>
       </c>
       <c r="C242" s="3">
-        <v>4833</v>
+        <v>7200</v>
       </c>
       <c r="D242" s="2">
-        <v>655</v>
+        <v>976</v>
       </c>
       <c r="E242" s="6">
         <v>2019</v>
@@ -7017,14 +7262,14 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>218</v>
+      <c r="A243" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C243" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D243" s="2">
         <v>0</v>
@@ -7041,17 +7286,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>249</v>
+      <c r="A244" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>2123</v>
+        <v>3162</v>
       </c>
       <c r="C244" s="3">
-        <v>2101</v>
+        <v>3130</v>
       </c>
       <c r="D244" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E244" s="6">
         <v>2019</v>
@@ -7065,17 +7310,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>219</v>
+      <c r="A245" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>123391</v>
+        <v>183841</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
       </c>
       <c r="D245" s="3">
-        <v>123390</v>
+        <v>183841</v>
       </c>
       <c r="E245" s="6">
         <v>2019</v>
